--- a/projectCompletion.xlsx
+++ b/projectCompletion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taymo\Documents\React\Projects\grand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{092C0E35-DFB8-4842-9FAF-ED8DD218B504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E125EDA1-AE7E-4A37-8A44-3BC3457EA205}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="13620" xr2:uid="{5E6407D4-81B9-4CF6-8D5D-6B38E9B0D8B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="13620" activeTab="1" xr2:uid="{5E6407D4-81B9-4CF6-8D5D-6B38E9B0D8B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Bugs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="127">
   <si>
     <t xml:space="preserve">Page </t>
   </si>
@@ -408,6 +407,12 @@
   </si>
   <si>
     <t>Not Finished</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Finished</t>
   </si>
 </sst>
 </file>
@@ -680,21 +685,21 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="8" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="8" tint="0.39994506668294322"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1631,7 +1636,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:doughnutChart>
+      <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1654,11 +1659,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E80E-42E5-BD34-F9D6C1B4C9D0}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1678,11 +1678,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E80E-42E5-BD34-F9D6C1B4C9D0}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1711,6 +1706,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1742,7 +1738,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Not Finished</c:v>
+                  <c:v>Finished</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Not Finished</c:v>
@@ -1757,21 +1753,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1888-477B-9104-EA8035B78AFD}"/>
+              <c16:uniqueId val="{00000000-67B1-4A43-A418-C3F72810774C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1781,8 +1778,7 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
-        <c:holeSize val="70"/>
-      </c:doughnutChart>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3656,23 +3652,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3AA0D4-B587-4574-AF8B-B69DD062AA58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B812F501-8C7F-4353-91E6-597CDF7E2F1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3992,8 +3988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA4D307-09E6-4E47-B893-B64CCAAC6620}">
   <dimension ref="B1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="78" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6238,17 +6234,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1 K3:K61 K63:K1048576">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
-      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
@@ -6328,8 +6324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F711B4F9-FA2A-4A24-BCB0-C673D347D82F}">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q13" activeCellId="1" sqref="H16 Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6345,6 +6341,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -6360,6 +6357,9 @@
         <v>114</v>
       </c>
       <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6368,19 +6368,22 @@
         <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K5" t="s">
         <v>124</v>
@@ -6391,24 +6394,27 @@
         <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
       </c>
       <c r="J6">
-        <f>COUNTIF(D:G, "X")</f>
-        <v>34</v>
+        <f>COUNTIF(D:H,"O")</f>
+        <v>45</v>
       </c>
       <c r="K6">
-        <f>COUNTIF(D:G,"O")</f>
-        <v>2</v>
+        <f>COUNTIF(D:H, "X")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -6416,16 +6422,19 @@
         <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -6433,16 +6442,19 @@
         <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -6450,16 +6462,19 @@
         <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -6467,16 +6482,19 @@
         <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -6484,15 +6502,18 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6501,16 +6522,19 @@
         <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -6518,21 +6542,24 @@
         <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/projectCompletion.xlsx
+++ b/projectCompletion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taymo\Documents\React\Projects\grand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E125EDA1-AE7E-4A37-8A44-3BC3457EA205}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B31F57-5171-4034-8624-A252647B5376}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="13620" activeTab="1" xr2:uid="{5E6407D4-81B9-4CF6-8D5D-6B38E9B0D8B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="13620" xr2:uid="{5E6407D4-81B9-4CF6-8D5D-6B38E9B0D8B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="126">
   <si>
     <t xml:space="preserve">Page </t>
   </si>
@@ -76,9 +76,6 @@
     <t>Whats New</t>
   </si>
   <si>
-    <t>3 BR Pres Ste</t>
-  </si>
-  <si>
     <t>Fine Dining</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>root</t>
   </si>
   <si>
-    <t>café del lagp</t>
-  </si>
-  <si>
     <t>fresh co</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t xml:space="preserve">la cantina </t>
   </si>
   <si>
-    <t>mercado mexico</t>
-  </si>
-  <si>
     <t>ola mulata</t>
   </si>
   <si>
@@ -247,9 +238,6 @@
     <t>casual</t>
   </si>
   <si>
-    <t>room dining</t>
-  </si>
-  <si>
     <t>leaf</t>
   </si>
   <si>
@@ -307,18 +295,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Google Maps API - Billboard content</t>
-  </si>
-  <si>
-    <t>Was crashing site, not checking if object key existed before assigning value to variable</t>
-  </si>
-  <si>
-    <t>billboard images not centered in column - images too much top margin</t>
-  </si>
-  <si>
-    <t>format location &amp; hours billboards</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -331,30 +307,12 @@
     <t>billboard needs custom styling</t>
   </si>
   <si>
-    <t>billboards need custom styling</t>
-  </si>
-  <si>
     <t>thumbnail styling needs adjustment - activities carousel needed</t>
   </si>
   <si>
-    <t>custom styling needed for bullet lists</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
-    <t>link thumbnail in casual dining to /shopping</t>
-  </si>
-  <si>
-    <t>create tabbed navigation</t>
-  </si>
-  <si>
-    <t>create activities carousel</t>
-  </si>
-  <si>
-    <t>billboard title needs to be resized</t>
-  </si>
-  <si>
     <t>contact form</t>
   </si>
   <si>
@@ -413,13 +371,184 @@
   </si>
   <si>
     <t>Finished</t>
+  </si>
+  <si>
+    <t>Billboards ES</t>
+  </si>
+  <si>
+    <t>Carousel ES</t>
+  </si>
+  <si>
+    <t>Thumbnail ES</t>
+  </si>
+  <si>
+    <t>Other ES</t>
+  </si>
+  <si>
+    <t>brio spa</t>
+  </si>
+  <si>
+    <t>café del lago</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Billboard Minified </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Billboard Hybrid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Billboard Carousel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Billboard Minified Header Right </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Billboard Recipe </t>
+    </r>
+  </si>
+  <si>
+    <t>Thumbnail Header With Header/Description | Tabbed Thumbnail Container With Header/Description</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Billboard Carousel With Header/Description </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Billboard List With Image</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Billboard Bullets With Header </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Billboard Bullets And Image | Billboard Minified Centered</t>
+    </r>
+  </si>
+  <si>
+    <t>Billlboard Bullets With Header/Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Billboard Extended Right Column | Billboard Horizonotal Paragraphs</t>
+  </si>
+  <si>
+    <t>fix date picker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +583,19 @@
       <color theme="1"/>
       <name val="Aldhabi"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -463,10 +605,99 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -475,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -492,7 +723,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -502,7 +769,187 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <color theme="8" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="8" tint="0.79998168889431442"/>
@@ -908,8 +1355,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{15A2060B-DADF-4302-9301-8494090BDDB2}">
-      <tableStyleElement type="wholeTable" dxfId="39"/>
-      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="wholeTable" dxfId="57"/>
+      <tableStyleElement type="headerRow" dxfId="56"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1088,7 +1535,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Content!$L$5:$O$5</c:f>
+              <c:f>Content!$P$1:$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1105,7 +1552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Content!$L$6:$O$6</c:f>
+              <c:f>Content!$P$2:$S$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1116,7 +1563,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,7 +1775,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CE7F-4B50-A0EA-64A088D94C06}"/>
+                <c16:uniqueId val="{00000001-E9CD-4FB3-A01F-3574E1D55938}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1352,7 +1799,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7859-4ED8-88FB-E729595B058B}"/>
+                <c16:uniqueId val="{00000003-E9CD-4FB3-A01F-3574E1D55938}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1376,7 +1823,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7859-4ED8-88FB-E729595B058B}"/>
+                <c16:uniqueId val="{00000005-E9CD-4FB3-A01F-3574E1D55938}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1434,7 +1881,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Content!$L$8:$N$8</c:f>
+              <c:f>Content!$V$1:$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1451,25 +1898,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Content!$L$9:$N$9</c:f>
+              <c:f>Content!$V$2:$X$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CE7F-4B50-A0EA-64A088D94C06}"/>
+              <c16:uniqueId val="{00000006-E9CD-4FB3-A01F-3574E1D55938}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1659,6 +2106,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D0C7-4876-8738-948B1C75537A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1678,6 +2130,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D0C7-4876-8738-948B1C75537A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3575,16 +4032,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>20409</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>934809</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>106755</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>449655</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3611,27 +4068,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>873328</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>770906</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>71436</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>844260</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB50CAE9-B1B0-4D84-B4DB-8AC3A6F1DDB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C78361-EF7B-4AC1-AD63-73CDCB901319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3986,2297 +4445,2879 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA4D307-09E6-4E47-B893-B64CCAAC6620}">
-  <dimension ref="B1:O71"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="78" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="5"/>
+    <col min="1" max="1" width="7.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="4"/>
     <col min="4" max="4" width="24.42578125" style="4" customWidth="1"/>
-    <col min="5" max="8" width="22" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="150.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="101.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.7109375" style="5"/>
+    <col min="5" max="12" width="22" style="4" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="71.140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="101.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="16.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="6" t="s">
+    <row r="1" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="J1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>102</v>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+    <row r="2" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="2">
+        <f>COUNTIF(C:C,"root")</f>
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>COUNTIF(C:C,"child ")</f>
+        <v>13</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2">
+        <f>COUNTIF(C:C, "leaf")</f>
+        <v>33</v>
+      </c>
+      <c r="V2" s="2">
+        <f>COUNTIF(E:L, "O")</f>
+        <v>180</v>
+      </c>
+      <c r="W2" s="2">
+        <f>COUNTIF(E:L, "P")</f>
+        <v>3</v>
+      </c>
+      <c r="X2" s="2">
+        <f>COUNTIF(E:L, "X")</f>
+        <v>11</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>W2+V2+X2</f>
+        <v>194</v>
+      </c>
     </row>
-    <row r="3" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="I3" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
     </row>
-    <row r="5" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
-      </c>
-      <c r="L6" s="2">
-        <f>COUNTIF(C:C,"root")</f>
-        <v>10</v>
-      </c>
-      <c r="M6" s="2">
-        <f>COUNTIF(C:C,"child ")</f>
-        <v>13</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
-        <f>COUNTIF(C:C, "leaf")</f>
-        <v>35</v>
-      </c>
+      <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" s="1">
-        <v>3</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="F9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="1">
-        <v>3</v>
-      </c>
-      <c r="L9" s="2">
-        <f>COUNTIF(D:H, "O")</f>
-        <v>85</v>
-      </c>
-      <c r="M9" s="2">
-        <f>COUNTIF(E:H, "P")</f>
-        <v>4</v>
-      </c>
-      <c r="N9" s="2">
-        <f>COUNTIF(E:H, "X")</f>
-        <v>13</v>
-      </c>
-      <c r="O9" s="2">
-        <f>M9+L9+N9</f>
-        <v>102</v>
-      </c>
+      <c r="I9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="1">
-        <v>3</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="O13" s="1"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="1">
-        <v>3</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="1">
-        <v>3</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="3"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="1">
-        <v>3</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="1">
-        <v>3</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="1">
-        <v>3</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="O20" s="1"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K20" s="1">
-        <v>3</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
     </row>
-    <row r="21" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K21" s="1">
-        <v>3</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
     </row>
-    <row r="22" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K22" s="1">
-        <v>3</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23" s="1">
-        <v>3</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K24" s="1">
-        <v>3</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="O25" s="1"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K25" s="1">
-        <v>3</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
     </row>
-    <row r="26" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K26" s="1">
-        <v>3</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K27" s="1">
-        <v>3</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="O28" s="1"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K28" s="1">
-        <v>3</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
     </row>
-    <row r="29" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="E40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="O40" s="1"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K29" s="1">
-        <v>3</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
     </row>
-    <row r="30" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="1" t="s">
+    <row r="42" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="O42" s="1"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K30" s="1">
-        <v>3</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
     </row>
-    <row r="31" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="1" t="s">
+    <row r="44" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="O44" s="1"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K31" s="1">
-        <v>3</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
     </row>
-    <row r="32" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="1" t="s">
+    <row r="46" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K32" s="1">
-        <v>3</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
     </row>
-    <row r="33" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K33" s="1">
-        <v>3</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+    <row r="47" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
     </row>
-    <row r="34" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K34" s="1">
-        <v>3</v>
-      </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+    <row r="48" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O48" s="1"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
     </row>
-    <row r="35" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K35" s="1">
-        <v>3</v>
-      </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+    <row r="49" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
     </row>
-    <row r="36" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+    <row r="50" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O50" s="1"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
     </row>
-    <row r="37" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K37" s="1">
-        <v>3</v>
-      </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+    <row r="51" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
     </row>
-    <row r="38" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K38" s="1">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+    <row r="52" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O52" s="1"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
     </row>
-    <row r="39" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K39" s="1">
-        <v>3</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K40" s="1">
-        <v>3</v>
-      </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K41" s="1">
-        <v>3</v>
-      </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K42" s="1">
-        <v>3</v>
-      </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K43" s="1">
-        <v>3</v>
-      </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K44" s="1">
-        <v>3</v>
-      </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K45" s="1">
-        <v>3</v>
-      </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K46" s="1">
-        <v>3</v>
-      </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K47" s="1">
-        <v>3</v>
-      </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K48" s="1">
-        <v>3</v>
-      </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K49" s="1">
-        <v>2</v>
-      </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K50" s="1">
-        <v>2</v>
-      </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K53" s="1">
-        <v>2</v>
-      </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
     </row>
-    <row r="54" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K54" s="1">
-        <v>3</v>
-      </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
     </row>
-    <row r="55" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O55" s="1"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N56" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K55" s="1">
-        <v>3</v>
-      </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
     </row>
-    <row r="56" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="1" t="s">
+    <row r="57" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O58" s="1"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K56" s="1">
-        <v>2</v>
-      </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="C59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O59" s="1"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
     </row>
-    <row r="57" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K57" s="1">
-        <v>3</v>
-      </c>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+    <row r="60" spans="2:19" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O60" s="1"/>
     </row>
-    <row r="58" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K58" s="1">
-        <v>3</v>
-      </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K59" s="1">
-        <v>3</v>
-      </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-    </row>
-    <row r="60" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K60" s="1">
-        <v>3</v>
-      </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-    </row>
-    <row r="61" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K61" s="1">
-        <v>3</v>
-      </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="2:15" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="1" t="s">
+    <row r="69" spans="2:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>67</v>
+      <c r="D69" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
+  <mergeCells count="4">
+    <mergeCell ref="E1:M2"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:D1 D14:D41 C14:C48 C5:D13 C63:D1048576 E5 E16:E21 E36:G36 C59:C61 E23:E35 E37:E48 E42:F48 D52:D61">
-    <cfRule type="containsText" dxfId="37" priority="65" operator="containsText" text="leaf">
-      <formula>NOT(ISERROR(SEARCH("leaf",C1)))</formula>
+  <conditionalFormatting sqref="C5:D13 C61:D1048576 E5 E15:E20 C57:C59 E22:E46 E40:F46 D50 D52:D59 D14:D39 C14:C46">
+    <cfRule type="containsText" dxfId="55" priority="83" operator="containsText" text="leaf">
+      <formula>NOT(ISERROR(SEARCH("leaf",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="child/">
-      <formula>NOT(ISERROR(SEARCH("child/",C1)))</formula>
+    <cfRule type="containsText" dxfId="54" priority="85" operator="containsText" text="child/">
+      <formula>NOT(ISERROR(SEARCH("child/",C5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="86" operator="equal">
       <formula>"root"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D48">
-    <cfRule type="containsText" dxfId="34" priority="57" operator="containsText" text="leaf">
-      <formula>NOT(ISERROR(SEARCH("leaf",D42)))</formula>
+  <conditionalFormatting sqref="D40:D46">
+    <cfRule type="containsText" dxfId="52" priority="75" operator="containsText" text="leaf">
+      <formula>NOT(ISERROR(SEARCH("leaf",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="59" operator="containsText" text="child/">
-      <formula>NOT(ISERROR(SEARCH("child/",D42)))</formula>
+    <cfRule type="containsText" dxfId="51" priority="77" operator="containsText" text="child/">
+      <formula>NOT(ISERROR(SEARCH("child/",D40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="78" operator="equal">
       <formula>"root"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:D49 D50:D51 E50 C50:C58">
-    <cfRule type="containsText" dxfId="31" priority="50" operator="containsText" text="leaf">
-      <formula>NOT(ISERROR(SEARCH("leaf",C49)))</formula>
+  <conditionalFormatting sqref="C47:D47 D48:D49 E48 C48:C50 C52:C56">
+    <cfRule type="containsText" dxfId="49" priority="68" operator="containsText" text="leaf">
+      <formula>NOT(ISERROR(SEARCH("leaf",C47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="52" operator="containsText" text="child/">
-      <formula>NOT(ISERROR(SEARCH("child/",C49)))</formula>
+    <cfRule type="containsText" dxfId="48" priority="70" operator="containsText" text="child/">
+      <formula>NOT(ISERROR(SEARCH("child/",C47)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="71" operator="equal">
       <formula>"root"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C61 C63:C1048576">
-    <cfRule type="containsText" dxfId="28" priority="42" operator="containsText" text="child">
-      <formula>NOT(ISERROR(SEARCH("child",C1)))</formula>
+  <conditionalFormatting sqref="C61:C1048576 C52:C59 C4:C50">
+    <cfRule type="containsText" dxfId="46" priority="60" operator="containsText" text="child">
+      <formula>NOT(ISERROR(SEARCH("child",C4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="61" operator="equal">
       <formula>"child"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:K3 E3:H55 E1 I5:K55 E63:H1048576 E56:K61">
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+  <conditionalFormatting sqref="M3 E1 E61:L1048576 M52:N59 I52:L60 E52:H59 E3:L50 M5:O5 M6:N50 O6:O52">
+    <cfRule type="cellIs" dxfId="44" priority="57" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="58" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="59" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:K1 J2 J63:K1048576 J3:K61">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="bug">
-      <formula>NOT(ISERROR(SEARCH("bug",J1)))</formula>
+  <conditionalFormatting sqref="N1:O1 N61:O1048576 N52:N59 N4:O5 N6:N50 O6:O52">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="bug">
+      <formula>NOT(ISERROR(SEARCH("bug",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I61 I63:I1048576">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+  <conditionalFormatting sqref="M61:M1048576 M52:M59 M3:M50">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1 K3:K61 K63:K1048576">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+  <conditionalFormatting sqref="O1 O61:O1048576 O4:O52">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>3</formula>
+  <conditionalFormatting sqref="C60:D60">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="leaf">
+      <formula>NOT(ISERROR(SEARCH("leaf",C60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="child/">
+      <formula>NOT(ISERROR(SEARCH("child/",C60)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>"root"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="child">
+      <formula>NOT(ISERROR(SEARCH("child",C60)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+      <formula>"child"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62:D62">
+  <conditionalFormatting sqref="E60:H60 M60:N60">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"O"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N60">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="bug">
+      <formula>NOT(ISERROR(SEARCH("bug",N60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M60">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="leaf">
+      <formula>NOT(ISERROR(SEARCH("leaf",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="child/">
+      <formula>NOT(ISERROR(SEARCH("child/",D51)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"root"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
     <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="leaf">
-      <formula>NOT(ISERROR(SEARCH("leaf",C62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("leaf",C51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="child/">
-      <formula>NOT(ISERROR(SEARCH("child/",C62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("child/",C51)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"root"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="C51">
     <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="child">
-      <formula>NOT(ISERROR(SEARCH("child",C62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("child",C51)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"child"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62:K62">
+  <conditionalFormatting sqref="E51:N51 O53:O60">
     <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -6287,12 +7328,12 @@
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J62:K62">
+  <conditionalFormatting sqref="N51 O53:O60">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="bug">
-      <formula>NOT(ISERROR(SEARCH("bug",J62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("bug",N51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
+  <conditionalFormatting sqref="M51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -6300,7 +7341,7 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
+  <conditionalFormatting sqref="O53:O60">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -6324,8 +7365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F711B4F9-FA2A-4A24-BCB0-C673D347D82F}">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q13" activeCellId="1" sqref="H16 Q13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6335,78 +7376,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="D2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J6">
         <f>COUNTIF(D:H,"O")</f>
@@ -6419,82 +7460,82 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -6502,59 +7543,59 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
